--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5031,13 +5034,11 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5113,10 +5114,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5313,7 +5314,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5336,19 +5337,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5397,7 +5398,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5415,7 +5416,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5424,12 +5425,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5455,10 +5456,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5541,7 +5542,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5655,7 +5656,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5681,16 +5682,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5739,7 +5740,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5757,7 +5758,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5766,12 +5767,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5797,13 +5798,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5853,7 +5854,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5871,7 +5872,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5880,12 +5881,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5911,14 +5912,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5967,7 +5968,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5985,7 +5986,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5994,12 +5995,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6025,14 +6026,14 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6082,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6099,7 +6100,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6108,12 +6109,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6136,19 +6137,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6197,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6215,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6224,12 +6225,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6255,16 +6256,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6313,7 +6314,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6331,7 +6332,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6340,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
@@ -6348,7 +6349,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6370,7 +6371,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>218</v>
@@ -6461,7 +6462,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6484,16 +6485,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6543,7 +6544,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6558,24 +6559,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6598,16 +6599,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6657,7 +6658,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6672,10 +6673,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6689,7 +6690,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6712,16 +6713,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6771,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6789,10 +6790,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6803,7 +6804,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6826,13 +6827,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6883,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6898,10 +6899,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6915,7 +6916,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6941,10 +6942,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -7027,7 +7028,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7141,11 +7142,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7167,10 +7168,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7225,7 +7226,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7257,7 +7258,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7283,14 +7284,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7318,10 +7319,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7339,7 +7340,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7357,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7371,7 +7372,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7394,13 +7395,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7451,7 +7452,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7466,10 +7467,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7483,7 +7484,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7506,16 +7507,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7565,7 +7566,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7583,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7597,7 +7598,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7620,16 +7621,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7679,7 +7680,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7694,24 +7695,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7737,13 +7738,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7772,10 +7773,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7793,7 +7794,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7811,21 +7812,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7848,16 +7849,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7907,7 +7908,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7925,21 +7926,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7965,10 +7966,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8051,7 +8052,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8165,7 +8166,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8188,19 +8189,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8249,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8267,7 +8268,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8276,12 +8277,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8307,20 +8308,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8344,10 +8345,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8365,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8383,7 +8384,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8392,12 +8393,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8423,14 +8424,14 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8479,7 +8480,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8497,7 +8498,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8506,12 +8507,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8537,14 +8538,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8593,7 +8594,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8602,7 +8603,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8611,7 +8612,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8620,12 +8621,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8651,16 +8652,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8689,7 +8690,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8708,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8726,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8734,12 +8735,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8762,16 +8763,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8821,7 +8822,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8839,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8848,12 +8849,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8876,13 +8877,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8933,7 +8934,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8951,21 +8952,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8988,13 +8989,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9045,7 +9046,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9060,24 +9061,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9100,16 +9101,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9159,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9177,21 +9178,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9214,16 +9215,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9273,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9291,13 +9292,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9305,7 +9306,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9328,16 +9329,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9387,7 +9388,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9402,10 +9403,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9414,12 +9415,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9442,16 +9443,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9501,7 +9502,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9520,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9533,7 +9534,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9559,7 +9560,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9645,7 +9646,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9759,10 +9760,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9784,13 +9785,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9873,10 +9874,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9898,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9987,10 +9988,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10012,13 +10013,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10101,10 +10102,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10126,13 +10127,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10215,11 +10216,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10241,10 +10242,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10299,7 +10300,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10332,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10354,17 +10355,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10413,7 +10414,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10431,7 +10432,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10440,12 +10441,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10471,14 +10472,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10527,7 +10528,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10554,12 +10555,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10585,16 +10586,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10622,10 +10623,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10644,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10661,7 +10662,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10670,12 +10671,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10701,10 +10702,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10755,7 +10756,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10773,7 +10774,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10782,12 +10783,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10810,19 +10811,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10871,7 +10872,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10889,7 +10890,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10903,7 +10904,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10929,10 +10930,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11015,7 +11016,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11129,11 +11130,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11155,10 +11156,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11213,7 +11214,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11245,7 +11246,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11268,17 +11269,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11327,7 +11328,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11345,7 +11346,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11360,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11382,17 +11383,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11441,7 +11442,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11453,13 +11454,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11473,7 +11474,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11499,10 +11500,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11585,7 +11586,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11699,7 +11700,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11722,13 +11723,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11779,7 +11780,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11798,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11812,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11834,19 +11835,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11895,7 +11896,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11913,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11927,7 +11928,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11950,13 +11951,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12007,7 +12008,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12025,7 +12026,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12039,7 +12040,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12062,19 +12063,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12123,7 +12124,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12141,7 +12142,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12155,7 +12156,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12178,19 +12179,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12240,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12258,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12272,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12297,10 +12298,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12330,10 +12331,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12352,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12370,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12383,7 +12384,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12406,13 +12407,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12420,7 +12421,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12465,7 +12466,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12483,7 +12484,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12497,7 +12498,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12520,13 +12521,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12577,7 +12578,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12595,7 +12596,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12609,7 +12610,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12632,13 +12633,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12689,7 +12690,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12707,7 +12708,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12721,7 +12722,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12744,13 +12745,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12801,7 +12802,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12819,7 +12820,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12833,7 +12834,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12859,10 +12860,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12892,10 +12893,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12913,7 +12914,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12931,7 +12932,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12945,7 +12946,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12971,13 +12972,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13007,7 +13008,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13025,7 +13026,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13057,7 +13058,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13080,16 +13081,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13139,7 +13140,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13171,7 +13172,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13197,16 +13198,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13234,10 +13235,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13255,7 +13256,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13273,7 +13274,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13288,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13310,13 +13311,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13367,7 +13368,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13385,7 +13386,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13399,7 +13400,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13425,13 +13426,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13460,10 +13461,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13481,7 +13482,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13499,7 +13500,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13513,7 +13514,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13539,10 +13540,10 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13625,7 +13626,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13739,7 +13740,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13762,19 +13763,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13823,7 +13824,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13841,7 +13842,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13850,12 +13851,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13881,10 +13882,10 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13967,7 +13968,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14081,7 +14082,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14107,16 +14108,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14165,7 +14166,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14183,7 +14184,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14192,12 +14193,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14223,13 +14224,13 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14279,7 +14280,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14297,7 +14298,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14306,12 +14307,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14337,14 +14338,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14393,7 +14394,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14411,7 +14412,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14420,12 +14421,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14451,14 +14452,14 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14507,7 +14508,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14525,7 +14526,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14534,12 +14535,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14562,19 +14563,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14623,7 +14624,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14641,7 +14642,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14650,12 +14651,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14681,16 +14682,16 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14739,7 +14740,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14757,7 +14758,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14766,12 +14767,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14794,16 +14795,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14832,10 +14833,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14853,7 +14854,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14871,7 +14872,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14880,12 +14881,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14911,16 +14912,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14948,10 +14949,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14969,7 +14970,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14987,7 +14988,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14996,12 +14997,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15027,16 +15028,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15064,10 +15065,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15085,7 +15086,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15103,7 +15104,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15112,12 +15113,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15143,16 +15144,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15180,10 +15181,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15201,7 +15202,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15219,7 +15220,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15228,12 +15229,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15256,13 +15257,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15313,7 +15314,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15340,12 +15341,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15371,10 +15372,10 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15457,7 +15458,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15571,7 +15572,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15597,14 +15598,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15632,10 +15633,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15653,7 +15654,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15680,12 +15681,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15708,19 +15709,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15769,7 +15770,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15787,7 +15788,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15796,12 +15797,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15824,19 +15825,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15885,7 +15886,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15903,7 +15904,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15912,12 +15913,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15940,19 +15941,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16001,7 +16002,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16019,7 +16020,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16028,12 +16029,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16056,19 +16057,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16117,7 +16118,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16135,7 +16136,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16149,7 +16150,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16172,17 +16173,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16231,7 +16232,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16249,7 +16250,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16263,7 +16264,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16286,13 +16287,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16343,7 +16344,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16361,13 +16362,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16376,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16401,10 +16402,10 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16487,7 +16488,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16601,11 +16602,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16627,10 +16628,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16685,7 +16686,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16717,7 +16718,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16740,13 +16741,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16797,7 +16798,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16815,7 +16816,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16829,7 +16830,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16855,13 +16856,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16890,10 +16891,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16911,7 +16912,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16929,21 +16930,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16969,13 +16970,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17004,10 +17005,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17025,7 +17026,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17043,13 +17044,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17057,7 +17058,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17080,16 +17081,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17139,7 +17140,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17157,13 +17158,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17171,11 +17172,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17194,16 +17195,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17253,7 +17254,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17271,7 +17272,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17285,7 +17286,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17308,16 +17309,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17367,7 +17368,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17385,7 +17386,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
